--- a/data/CS2/Market Data/CS2_market_data_base.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4702A-425F-492E-B0CB-96C033333163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330A4B8-E802-4C81-818C-C1B9A1AE1F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="3360" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,100 +1687,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
-        <v>52.451999999999998</v>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.1</f>
+        <v>48.081000000000003</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
-        <v>48.941999999999993</v>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.1</f>
+        <v>44.863500000000002</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
-        <v>46.863</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.1</f>
+        <v>42.957750000000004</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
-        <v>43.947000000000003</v>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.1</f>
+        <v>40.284750000000003</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
-        <v>45.258000000000003</v>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.1</f>
+        <v>41.486500000000007</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
-        <v>48.894000000000005</v>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.1</f>
+        <v>44.819500000000012</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
-        <v>59.153999999999989</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.1</f>
+        <v>54.224499999999999</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
-        <v>61.908000000000001</v>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.1</f>
+        <v>56.749000000000009</v>
       </c>
       <c r="J2" s="2">
-        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
-        <v>65.099999999999994</v>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.1</f>
+        <v>59.675000000000004</v>
       </c>
       <c r="K2" s="2">
-        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
-        <v>64.60499999999999</v>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.1</f>
+        <v>59.221250000000005</v>
       </c>
       <c r="L2" s="2">
-        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
-        <v>63.360000000000014</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.1</f>
+        <v>58.08000000000002</v>
       </c>
       <c r="M2" s="2">
-        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
-        <v>63.050999999999995</v>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.1</f>
+        <v>57.796750000000003</v>
       </c>
       <c r="N2" s="2">
-        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
-        <v>60.608999999999988</v>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.1</f>
+        <v>55.558249999999994</v>
       </c>
       <c r="O2" s="2">
-        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
-        <v>59.753999999999991</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.1</f>
+        <v>54.774499999999996</v>
       </c>
       <c r="P2" s="2">
-        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
-        <v>58.581000000000003</v>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.1</f>
+        <v>53.699250000000006</v>
       </c>
       <c r="Q2" s="2">
-        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
-        <v>58.697999999999993</v>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.1</f>
+        <v>53.806500000000007</v>
       </c>
       <c r="R2" s="2">
-        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
-        <v>59.603999999999992</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.1</f>
+        <v>54.637</v>
       </c>
       <c r="S2" s="2">
-        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
-        <v>62.55</v>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.1</f>
+        <v>57.337500000000006</v>
       </c>
       <c r="T2" s="2">
-        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
-        <v>65.543999999999997</v>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.1</f>
+        <v>60.082000000000008</v>
       </c>
       <c r="U2" s="2">
-        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
-        <v>66.048000000000002</v>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.1</f>
+        <v>60.544000000000004</v>
       </c>
       <c r="V2" s="2">
-        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
-        <v>64.524000000000001</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.1</f>
+        <v>59.147000000000006</v>
       </c>
       <c r="W2" s="2">
-        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
-        <v>60.471000000000004</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.1</f>
+        <v>55.431750000000008</v>
       </c>
       <c r="X2" s="2">
-        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
-        <v>54.578999999999994</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.1</f>
+        <v>50.030749999999998</v>
       </c>
       <c r="Y2" s="2">
-        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
-        <v>51.227999999999994</v>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.1</f>
+        <v>46.959000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1788,100 +1788,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
-        <v>52.451999999999998</v>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.1</f>
+        <v>48.081000000000003</v>
       </c>
       <c r="C3" s="2">
-        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
-        <v>48.941999999999993</v>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.1</f>
+        <v>44.863500000000002</v>
       </c>
       <c r="D3" s="2">
-        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
-        <v>46.863</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.1</f>
+        <v>42.957750000000004</v>
       </c>
       <c r="E3" s="2">
-        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
-        <v>43.947000000000003</v>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.1</f>
+        <v>40.284750000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
-        <v>45.258000000000003</v>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.1</f>
+        <v>41.486500000000007</v>
       </c>
       <c r="G3" s="2">
-        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
-        <v>48.894000000000005</v>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.1</f>
+        <v>44.819500000000012</v>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
-        <v>59.153999999999989</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.1</f>
+        <v>54.224499999999999</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
-        <v>61.908000000000001</v>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.1</f>
+        <v>56.749000000000009</v>
       </c>
       <c r="J3" s="2">
-        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
-        <v>65.099999999999994</v>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.1</f>
+        <v>59.675000000000004</v>
       </c>
       <c r="K3" s="2">
-        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
-        <v>64.60499999999999</v>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.1</f>
+        <v>59.221250000000005</v>
       </c>
       <c r="L3" s="2">
-        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
-        <v>63.360000000000014</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.1</f>
+        <v>58.08000000000002</v>
       </c>
       <c r="M3" s="2">
-        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
-        <v>63.050999999999995</v>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.1</f>
+        <v>57.796750000000003</v>
       </c>
       <c r="N3" s="2">
-        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
-        <v>60.608999999999988</v>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.1</f>
+        <v>55.558249999999994</v>
       </c>
       <c r="O3" s="2">
-        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
-        <v>59.753999999999991</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.1</f>
+        <v>54.774499999999996</v>
       </c>
       <c r="P3" s="2">
-        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
-        <v>58.581000000000003</v>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.1</f>
+        <v>53.699250000000006</v>
       </c>
       <c r="Q3" s="2">
-        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
-        <v>58.697999999999993</v>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.1</f>
+        <v>53.806500000000007</v>
       </c>
       <c r="R3" s="2">
-        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
-        <v>59.603999999999992</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.1</f>
+        <v>54.637</v>
       </c>
       <c r="S3" s="2">
-        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
-        <v>62.55</v>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.1</f>
+        <v>57.337500000000006</v>
       </c>
       <c r="T3" s="2">
-        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
-        <v>65.543999999999997</v>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.1</f>
+        <v>60.082000000000008</v>
       </c>
       <c r="U3" s="2">
-        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
-        <v>66.048000000000002</v>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.1</f>
+        <v>60.544000000000004</v>
       </c>
       <c r="V3" s="2">
-        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
-        <v>64.524000000000001</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.1</f>
+        <v>59.147000000000006</v>
       </c>
       <c r="W3" s="2">
-        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
-        <v>60.471000000000004</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.1</f>
+        <v>55.431750000000008</v>
       </c>
       <c r="X3" s="2">
-        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
-        <v>54.578999999999994</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.1</f>
+        <v>50.030749999999998</v>
       </c>
       <c r="Y3" s="2">
-        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
-        <v>51.227999999999994</v>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.1</f>
+        <v>46.959000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1889,100 +1889,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.2</f>
-        <v>52.451999999999998</v>
+        <f>AVERAGE('Energy, Winter'!B$2:B$4)*1.1</f>
+        <v>48.081000000000003</v>
       </c>
       <c r="C4" s="2">
-        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.2</f>
-        <v>48.941999999999993</v>
+        <f>AVERAGE('Energy, Winter'!C$2:C$4)*1.1</f>
+        <v>44.863500000000002</v>
       </c>
       <c r="D4" s="2">
-        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.2</f>
-        <v>46.863</v>
+        <f>AVERAGE('Energy, Winter'!D$2:D$4)*1.1</f>
+        <v>42.957750000000004</v>
       </c>
       <c r="E4" s="2">
-        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.2</f>
-        <v>43.947000000000003</v>
+        <f>AVERAGE('Energy, Winter'!E$2:E$4)*1.1</f>
+        <v>40.284750000000003</v>
       </c>
       <c r="F4" s="2">
-        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.2</f>
-        <v>45.258000000000003</v>
+        <f>AVERAGE('Energy, Winter'!F$2:F$4)*1.1</f>
+        <v>41.486500000000007</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.2</f>
-        <v>48.894000000000005</v>
+        <f>AVERAGE('Energy, Winter'!G$2:G$4)*1.1</f>
+        <v>44.819500000000012</v>
       </c>
       <c r="H4" s="2">
-        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.2</f>
-        <v>59.153999999999989</v>
+        <f>AVERAGE('Energy, Winter'!H$2:H$4)*1.1</f>
+        <v>54.224499999999999</v>
       </c>
       <c r="I4" s="2">
-        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.2</f>
-        <v>61.908000000000001</v>
+        <f>AVERAGE('Energy, Winter'!I$2:I$4)*1.1</f>
+        <v>56.749000000000009</v>
       </c>
       <c r="J4" s="2">
-        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.2</f>
-        <v>65.099999999999994</v>
+        <f>AVERAGE('Energy, Winter'!J$2:J$4)*1.1</f>
+        <v>59.675000000000004</v>
       </c>
       <c r="K4" s="2">
-        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.2</f>
-        <v>64.60499999999999</v>
+        <f>AVERAGE('Energy, Winter'!K$2:K$4)*1.1</f>
+        <v>59.221250000000005</v>
       </c>
       <c r="L4" s="2">
-        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.2</f>
-        <v>63.360000000000014</v>
+        <f>AVERAGE('Energy, Winter'!L$2:L$4)*1.1</f>
+        <v>58.08000000000002</v>
       </c>
       <c r="M4" s="2">
-        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.2</f>
-        <v>63.050999999999995</v>
+        <f>AVERAGE('Energy, Winter'!M$2:M$4)*1.1</f>
+        <v>57.796750000000003</v>
       </c>
       <c r="N4" s="2">
-        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.2</f>
-        <v>60.608999999999988</v>
+        <f>AVERAGE('Energy, Winter'!N$2:N$4)*1.1</f>
+        <v>55.558249999999994</v>
       </c>
       <c r="O4" s="2">
-        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.2</f>
-        <v>59.753999999999991</v>
+        <f>AVERAGE('Energy, Winter'!O$2:O$4)*1.1</f>
+        <v>54.774499999999996</v>
       </c>
       <c r="P4" s="2">
-        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.2</f>
-        <v>58.581000000000003</v>
+        <f>AVERAGE('Energy, Winter'!P$2:P$4)*1.1</f>
+        <v>53.699250000000006</v>
       </c>
       <c r="Q4" s="2">
-        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.2</f>
-        <v>58.697999999999993</v>
+        <f>AVERAGE('Energy, Winter'!Q$2:Q$4)*1.1</f>
+        <v>53.806500000000007</v>
       </c>
       <c r="R4" s="2">
-        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.2</f>
-        <v>59.603999999999992</v>
+        <f>AVERAGE('Energy, Winter'!R$2:R$4)*1.1</f>
+        <v>54.637</v>
       </c>
       <c r="S4" s="2">
-        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.2</f>
-        <v>62.55</v>
+        <f>AVERAGE('Energy, Winter'!S$2:S$4)*1.1</f>
+        <v>57.337500000000006</v>
       </c>
       <c r="T4" s="2">
-        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.2</f>
-        <v>65.543999999999997</v>
+        <f>AVERAGE('Energy, Winter'!T$2:T$4)*1.1</f>
+        <v>60.082000000000008</v>
       </c>
       <c r="U4" s="2">
-        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.2</f>
-        <v>66.048000000000002</v>
+        <f>AVERAGE('Energy, Winter'!U$2:U$4)*1.1</f>
+        <v>60.544000000000004</v>
       </c>
       <c r="V4" s="2">
-        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.2</f>
-        <v>64.524000000000001</v>
+        <f>AVERAGE('Energy, Winter'!V$2:V$4)*1.1</f>
+        <v>59.147000000000006</v>
       </c>
       <c r="W4" s="2">
-        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.2</f>
-        <v>60.471000000000004</v>
+        <f>AVERAGE('Energy, Winter'!W$2:W$4)*1.1</f>
+        <v>55.431750000000008</v>
       </c>
       <c r="X4" s="2">
-        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.2</f>
-        <v>54.578999999999994</v>
+        <f>AVERAGE('Energy, Winter'!X$2:X$4)*1.1</f>
+        <v>50.030749999999998</v>
       </c>
       <c r="Y4" s="2">
-        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.2</f>
-        <v>51.227999999999994</v>
+        <f>AVERAGE('Energy, Winter'!Y$2:Y$4)*1.1</f>
+        <v>46.959000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587CCD7-3E6A-436D-B3BD-ECCE65597EC5}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,100 +3376,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
-        <v>44.136000000000003</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.1</f>
+        <v>40.458000000000006</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
-        <v>39.931999999999995</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.1</f>
+        <v>36.604333333333336</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
-        <v>39.864000000000004</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.1</f>
+        <v>36.542000000000009</v>
       </c>
       <c r="E2" s="2">
-        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
-        <v>38.923999999999999</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.1</f>
+        <v>35.680333333333337</v>
       </c>
       <c r="F2" s="2">
-        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
-        <v>39.660000000000004</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.1</f>
+        <v>36.355000000000011</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
-        <v>43.583999999999996</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.1</f>
+        <v>39.952000000000005</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
-        <v>48.144000000000005</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.1</f>
+        <v>44.132000000000012</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
-        <v>48.403999999999996</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.1</f>
+        <v>44.370333333333335</v>
       </c>
       <c r="J2" s="2">
-        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
-        <v>51.024000000000001</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.1</f>
+        <v>46.772000000000006</v>
       </c>
       <c r="K2" s="2">
-        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
-        <v>50.907999999999994</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.1</f>
+        <v>46.665666666666667</v>
       </c>
       <c r="L2" s="2">
-        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
-        <v>49.74</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.1</f>
+        <v>45.595000000000006</v>
       </c>
       <c r="M2" s="2">
-        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
-        <v>49.672000000000004</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.1</f>
+        <v>45.532666666666678</v>
       </c>
       <c r="N2" s="2">
-        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
-        <v>51.436</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.1</f>
+        <v>47.149666666666675</v>
       </c>
       <c r="O2" s="2">
-        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
-        <v>52.203999999999994</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.1</f>
+        <v>47.853666666666669</v>
       </c>
       <c r="P2" s="2">
-        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
-        <v>51.05599999999999</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.1</f>
+        <v>46.801333333333332</v>
       </c>
       <c r="Q2" s="2">
-        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
-        <v>49.819999999999986</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.1</f>
+        <v>45.668333333333329</v>
       </c>
       <c r="R2" s="2">
-        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
-        <v>48.875999999999998</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.1</f>
+        <v>44.802999999999997</v>
       </c>
       <c r="S2" s="2">
-        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
-        <v>50.391999999999996</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.1</f>
+        <v>46.192666666666668</v>
       </c>
       <c r="T2" s="2">
-        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
-        <v>51.579999999999991</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.1</f>
+        <v>47.281666666666666</v>
       </c>
       <c r="U2" s="2">
-        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
-        <v>53.071999999999996</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.1</f>
+        <v>48.649333333333338</v>
       </c>
       <c r="V2" s="2">
-        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
-        <v>54.268000000000001</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.1</f>
+        <v>49.745666666666672</v>
       </c>
       <c r="W2" s="2">
-        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
-        <v>56.671999999999997</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.1</f>
+        <v>51.949333333333335</v>
       </c>
       <c r="X2" s="2">
-        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
-        <v>54.199999999999996</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.1</f>
+        <v>49.683333333333337</v>
       </c>
       <c r="Y2" s="2">
-        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
-        <v>50.256</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.1</f>
+        <v>46.068000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3477,100 +3477,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
-        <v>44.136000000000003</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.1</f>
+        <v>40.458000000000006</v>
       </c>
       <c r="C3" s="2">
-        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
-        <v>39.931999999999995</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.1</f>
+        <v>36.604333333333336</v>
       </c>
       <c r="D3" s="2">
-        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
-        <v>39.864000000000004</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.1</f>
+        <v>36.542000000000009</v>
       </c>
       <c r="E3" s="2">
-        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
-        <v>38.923999999999999</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.1</f>
+        <v>35.680333333333337</v>
       </c>
       <c r="F3" s="2">
-        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
-        <v>39.660000000000004</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.1</f>
+        <v>36.355000000000011</v>
       </c>
       <c r="G3" s="2">
-        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
-        <v>43.583999999999996</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.1</f>
+        <v>39.952000000000005</v>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
-        <v>48.144000000000005</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.1</f>
+        <v>44.132000000000012</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
-        <v>48.403999999999996</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.1</f>
+        <v>44.370333333333335</v>
       </c>
       <c r="J3" s="2">
-        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
-        <v>51.024000000000001</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.1</f>
+        <v>46.772000000000006</v>
       </c>
       <c r="K3" s="2">
-        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
-        <v>50.907999999999994</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.1</f>
+        <v>46.665666666666667</v>
       </c>
       <c r="L3" s="2">
-        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
-        <v>49.74</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.1</f>
+        <v>45.595000000000006</v>
       </c>
       <c r="M3" s="2">
-        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
-        <v>49.672000000000004</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.1</f>
+        <v>45.532666666666678</v>
       </c>
       <c r="N3" s="2">
-        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
-        <v>51.436</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.1</f>
+        <v>47.149666666666675</v>
       </c>
       <c r="O3" s="2">
-        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
-        <v>52.203999999999994</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.1</f>
+        <v>47.853666666666669</v>
       </c>
       <c r="P3" s="2">
-        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
-        <v>51.05599999999999</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.1</f>
+        <v>46.801333333333332</v>
       </c>
       <c r="Q3" s="2">
-        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
-        <v>49.819999999999986</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.1</f>
+        <v>45.668333333333329</v>
       </c>
       <c r="R3" s="2">
-        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
-        <v>48.875999999999998</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.1</f>
+        <v>44.802999999999997</v>
       </c>
       <c r="S3" s="2">
-        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
-        <v>50.391999999999996</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.1</f>
+        <v>46.192666666666668</v>
       </c>
       <c r="T3" s="2">
-        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
-        <v>51.579999999999991</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.1</f>
+        <v>47.281666666666666</v>
       </c>
       <c r="U3" s="2">
-        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
-        <v>53.071999999999996</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.1</f>
+        <v>48.649333333333338</v>
       </c>
       <c r="V3" s="2">
-        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
-        <v>54.268000000000001</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.1</f>
+        <v>49.745666666666672</v>
       </c>
       <c r="W3" s="2">
-        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
-        <v>56.671999999999997</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.1</f>
+        <v>51.949333333333335</v>
       </c>
       <c r="X3" s="2">
-        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
-        <v>54.199999999999996</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.1</f>
+        <v>49.683333333333337</v>
       </c>
       <c r="Y3" s="2">
-        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
-        <v>50.256</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.1</f>
+        <v>46.068000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3578,100 +3578,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.2</f>
-        <v>44.136000000000003</v>
+        <f>AVERAGE('Energy, Summer'!B$2:B$4)*1.1</f>
+        <v>40.458000000000006</v>
       </c>
       <c r="C4" s="2">
-        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.2</f>
-        <v>39.931999999999995</v>
+        <f>AVERAGE('Energy, Summer'!C$2:C$4)*1.1</f>
+        <v>36.604333333333336</v>
       </c>
       <c r="D4" s="2">
-        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.2</f>
-        <v>39.864000000000004</v>
+        <f>AVERAGE('Energy, Summer'!D$2:D$4)*1.1</f>
+        <v>36.542000000000009</v>
       </c>
       <c r="E4" s="2">
-        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.2</f>
-        <v>38.923999999999999</v>
+        <f>AVERAGE('Energy, Summer'!E$2:E$4)*1.1</f>
+        <v>35.680333333333337</v>
       </c>
       <c r="F4" s="2">
-        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.2</f>
-        <v>39.660000000000004</v>
+        <f>AVERAGE('Energy, Summer'!F$2:F$4)*1.1</f>
+        <v>36.355000000000011</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.2</f>
-        <v>43.583999999999996</v>
+        <f>AVERAGE('Energy, Summer'!G$2:G$4)*1.1</f>
+        <v>39.952000000000005</v>
       </c>
       <c r="H4" s="2">
-        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.2</f>
-        <v>48.144000000000005</v>
+        <f>AVERAGE('Energy, Summer'!H$2:H$4)*1.1</f>
+        <v>44.132000000000012</v>
       </c>
       <c r="I4" s="2">
-        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.2</f>
-        <v>48.403999999999996</v>
+        <f>AVERAGE('Energy, Summer'!I$2:I$4)*1.1</f>
+        <v>44.370333333333335</v>
       </c>
       <c r="J4" s="2">
-        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.2</f>
-        <v>51.024000000000001</v>
+        <f>AVERAGE('Energy, Summer'!J$2:J$4)*1.1</f>
+        <v>46.772000000000006</v>
       </c>
       <c r="K4" s="2">
-        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.2</f>
-        <v>50.907999999999994</v>
+        <f>AVERAGE('Energy, Summer'!K$2:K$4)*1.1</f>
+        <v>46.665666666666667</v>
       </c>
       <c r="L4" s="2">
-        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.2</f>
-        <v>49.74</v>
+        <f>AVERAGE('Energy, Summer'!L$2:L$4)*1.1</f>
+        <v>45.595000000000006</v>
       </c>
       <c r="M4" s="2">
-        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.2</f>
-        <v>49.672000000000004</v>
+        <f>AVERAGE('Energy, Summer'!M$2:M$4)*1.1</f>
+        <v>45.532666666666678</v>
       </c>
       <c r="N4" s="2">
-        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.2</f>
-        <v>51.436</v>
+        <f>AVERAGE('Energy, Summer'!N$2:N$4)*1.1</f>
+        <v>47.149666666666675</v>
       </c>
       <c r="O4" s="2">
-        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.2</f>
-        <v>52.203999999999994</v>
+        <f>AVERAGE('Energy, Summer'!O$2:O$4)*1.1</f>
+        <v>47.853666666666669</v>
       </c>
       <c r="P4" s="2">
-        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.2</f>
-        <v>51.05599999999999</v>
+        <f>AVERAGE('Energy, Summer'!P$2:P$4)*1.1</f>
+        <v>46.801333333333332</v>
       </c>
       <c r="Q4" s="2">
-        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.2</f>
-        <v>49.819999999999986</v>
+        <f>AVERAGE('Energy, Summer'!Q$2:Q$4)*1.1</f>
+        <v>45.668333333333329</v>
       </c>
       <c r="R4" s="2">
-        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.2</f>
-        <v>48.875999999999998</v>
+        <f>AVERAGE('Energy, Summer'!R$2:R$4)*1.1</f>
+        <v>44.802999999999997</v>
       </c>
       <c r="S4" s="2">
-        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.2</f>
-        <v>50.391999999999996</v>
+        <f>AVERAGE('Energy, Summer'!S$2:S$4)*1.1</f>
+        <v>46.192666666666668</v>
       </c>
       <c r="T4" s="2">
-        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.2</f>
-        <v>51.579999999999991</v>
+        <f>AVERAGE('Energy, Summer'!T$2:T$4)*1.1</f>
+        <v>47.281666666666666</v>
       </c>
       <c r="U4" s="2">
-        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.2</f>
-        <v>53.071999999999996</v>
+        <f>AVERAGE('Energy, Summer'!U$2:U$4)*1.1</f>
+        <v>48.649333333333338</v>
       </c>
       <c r="V4" s="2">
-        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.2</f>
-        <v>54.268000000000001</v>
+        <f>AVERAGE('Energy, Summer'!V$2:V$4)*1.1</f>
+        <v>49.745666666666672</v>
       </c>
       <c r="W4" s="2">
-        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.2</f>
-        <v>56.671999999999997</v>
+        <f>AVERAGE('Energy, Summer'!W$2:W$4)*1.1</f>
+        <v>51.949333333333335</v>
       </c>
       <c r="X4" s="2">
-        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.2</f>
-        <v>54.199999999999996</v>
+        <f>AVERAGE('Energy, Summer'!X$2:X$4)*1.1</f>
+        <v>49.683333333333337</v>
       </c>
       <c r="Y4" s="2">
-        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.2</f>
-        <v>50.256</v>
+        <f>AVERAGE('Energy, Summer'!Y$2:Y$4)*1.1</f>
+        <v>46.068000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS2/Market Data/CS2_market_data_base.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330A4B8-E802-4C81-818C-C1B9A1AE1F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B5FEE-9CA6-4FCC-80CB-B99E540422AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25560" yWindow="4035" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1587CCD7-3E6A-436D-B3BD-ECCE65597EC5}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
